--- a/app/search/exclude.xlsx
+++ b/app/search/exclude.xlsx
@@ -1,135 +1,207 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://10life-my.sharepoint.com/personal/willon_lai_10life_com/Documents/文件/CodeSpace/shopline_automation/app/search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1A0F705-789B-4DBA-9F80-DF90DDE44B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{9A207728-990E-4F97-B3C6-C47DF3C6A690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-9465" windowWidth="29040" windowHeight="15720" tabRatio="500"/>
+    <workbookView xWindow="30750" yWindow="-7395" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="80000" iterate="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Keywords or Product Name</t>
   </si>
   <si>
+    <t>APS Body Wash 體驗裝</t>
+  </si>
+  <si>
+    <t>APS Siren 費洛蒙 洗髮露 500ml</t>
+  </si>
+  <si>
+    <t>APS 費洛蒙香水 Shampoo (洗髮水香)</t>
+  </si>
+  <si>
     <t>BATTLEMAN OysterKing 蠔王戰鬥飲 (50ml x 2支)</t>
   </si>
   <si>
+    <t>Durex 杜蕾斯 Fetherlite Thin Feel 超薄裝 乳膠安全套 3片裝 (新舊包裝隨機發送)</t>
+  </si>
+  <si>
+    <t>Durex 杜蕾斯 G激爽裝 乳膠安全套 3 片裝 (香港版)</t>
+  </si>
+  <si>
+    <t>Durex 杜蕾斯 倍滑至薄幻隱裝 乳膠安全套 3 片裝</t>
+  </si>
+  <si>
+    <t>Durex 杜蕾斯 可彎折纖細震動按摩棒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genesprint 沙眼衣原體抗原檢測試劑盒 </t>
+  </si>
+  <si>
+    <t>GINRO 《微床遊.遊慾》BDSM新手皮具組</t>
+  </si>
+  <si>
+    <t>HARU Pocket 卡片拋棄式 草本情慾香氛熱感潤滑液 3ml 1片裝</t>
+  </si>
+  <si>
+    <t>HARU: ORGASM by Jack Herer 草本情慾香氛熱感潤滑液</t>
+  </si>
+  <si>
+    <t>HARU: Travel Kit 潤滑液便攜裝 - ORGASM 草本熱浪情迷 15ml</t>
+  </si>
+  <si>
+    <t>HOT TENGA 熱感飛機杯</t>
+  </si>
+  <si>
+    <t>lovetoy SM1014 豪華捆綁套裝 黑色</t>
+  </si>
+  <si>
+    <t>MACCOS 飛機杯清潔保養套裝 【消毒除臭防油 收納粉+清潔劑】</t>
+  </si>
+  <si>
+    <t>NPG AV ONA CUP 石原希望 女優名器飛機杯</t>
+  </si>
+  <si>
+    <t>NPG 名器覺醒 北野未奈 女優名器飛機杯</t>
+  </si>
+  <si>
+    <t>NPG 我的妹妹是處女 潤滑液</t>
+  </si>
+  <si>
+    <t>NPG 真素人名器 真子醬 女優名器飛機杯</t>
+  </si>
+  <si>
+    <t>pjur superhero 水性潤滑液 30ml / 100ml</t>
+  </si>
+  <si>
+    <t>pjur x We-Vibe 專用清潔噴霧 100ml</t>
+  </si>
+  <si>
+    <t>Relove Cosmopolitan 限量聯名 胺基酸私密清潔凝露 120ml</t>
+  </si>
+  <si>
+    <t>Relove 私密衣物蛋白酵素去漬抑菌手洗精 葡萄柚茉莉 優雅柔情 4ml (單片裝)</t>
+  </si>
+  <si>
+    <t>Sagami 相模原創 0.02 (第二代) 2 片裝 PU 安全套</t>
+  </si>
+  <si>
+    <t>Sagami 相模原創 0.02 大碼 (第二代) 58mm 2 片裝 PU 安全套</t>
+  </si>
+  <si>
+    <t>Sagami 相模原創 潤滑凝膠 水性旅行裝潤滑液 3g</t>
+  </si>
+  <si>
     <t>Sagami 相模究極纖薄式(第二代) 36 片裝 乳膠安全套</t>
   </si>
   <si>
-    <t>HOT TENGA 熱感飛機杯</t>
+    <t>Satisfyer Curvy 2+ 智能吸啜器</t>
+  </si>
+  <si>
+    <t>Satisfyer Partner Box 情侶組合 2</t>
+  </si>
+  <si>
+    <t>SISTALK 小怪獸 魔吻 Magic Kiss 舔舔吸啜震動器</t>
+  </si>
+  <si>
+    <t>SSI Japan 催淫 絕對刺激敏感 熱感潤滑液 180ml</t>
+  </si>
+  <si>
+    <t>TENGA AIR-TECH SQUEEZE 重複使用型真空杯 柔軟型</t>
+  </si>
+  <si>
+    <t>TENGA Crysta</t>
+  </si>
+  <si>
+    <t>TENGA Men's Boost 男士能量飲</t>
+  </si>
+  <si>
+    <t>TENGA U.S. Deep Throat Cup 口交模擬器</t>
+  </si>
+  <si>
+    <t>TENGA 精育 支援補充劑 (30日份量)</t>
   </si>
   <si>
     <t>TENGA 飛機杯拉炮</t>
   </si>
   <si>
-    <t>TENGA U.S. Deep Throat Cup 口交模擬器</t>
-  </si>
-  <si>
-    <t>TENGA AIR-TECH SQUEEZE 重複使用型真空杯 柔軟型</t>
-  </si>
-  <si>
-    <t>Relove 私密衣物蛋白酵素去漬抑菌手洗精 葡萄柚茉莉 優雅柔情 4ml (單片裝)</t>
-  </si>
-  <si>
-    <t>MACCOS 飛機杯清潔保養套裝 【消毒除臭防油 收納粉+清潔劑】</t>
-  </si>
-  <si>
-    <t>EXE Japanese Real Hole 淫 橋本有菜 女優名器飛機杯</t>
-  </si>
-  <si>
-    <t>HARU Pocket 卡片拋棄式 草本情慾香氛熱感潤滑液 3ml 1片裝</t>
-  </si>
-  <si>
-    <t>NPG 真素人名器 真子醬 女優名器飛機杯</t>
-  </si>
-  <si>
-    <t>NPG AV ONA CUP 石原希望 女優名器飛機杯</t>
+    <t>TENGA 飛機袋 Cool Spark Beads 冰涼特別版</t>
+  </si>
+  <si>
+    <t>ToysHeart Onatsuyu 旅行裝潤滑液 12ml</t>
+  </si>
+  <si>
+    <t>ToysHeart 黑魔術師 動漫名器飛機杯</t>
+  </si>
+  <si>
+    <t>奧莉維亞 Olivia WL4 旅行小包裝 水性旅行裝潤滑液（散裝）</t>
   </si>
   <si>
     <t>小怪獸2 哥斯拉大師 (青春版/健康版) 健康版</t>
   </si>
   <si>
-    <t>NPG 名器覺醒 北野未奈 女優名器飛機杯</t>
-  </si>
-  <si>
-    <t>SKYN Elite Extra Lube 特薄加潤 PI安全套 12片裝</t>
-  </si>
-  <si>
-    <t>Sagami 相模 Miracle Fit 奇妙貼身51mm 30片裝乳膠安全套</t>
-  </si>
-  <si>
-    <t>Sagami 相模 凸點一段波 乳膠安全套 5片裝</t>
-  </si>
-  <si>
-    <t>Satisfyer Partner Box 情侶組合 2</t>
-  </si>
-  <si>
-    <t>ToysHeart 黑魔術師 動漫名器飛機杯</t>
-  </si>
-  <si>
-    <t>Satisfyer Curvy 2+ 智能吸啜器</t>
-  </si>
-  <si>
-    <t>Sagami 相模原創 0.01 PU安全套 1片裝</t>
-  </si>
-  <si>
-    <t>SSI Japan 催淫 絕對刺激敏感 熱感潤滑液 180ml</t>
+    <t>小怪獸2 惡魔先生 (青春版/健康版)</t>
+  </si>
+  <si>
+    <t>岡本 x Danboard 阿楞紙箱人暖包 10片裝</t>
+  </si>
+  <si>
+    <t>岡本 薄度均一 0.02 (日本版) 6 片裝 PU 安全套</t>
   </si>
   <si>
     <t>相模原創 0.01 極潤 1 片裝 PU 安全套</t>
   </si>
   <si>
-    <t>岡本 x Danboard 阿楞紙箱人暖包 10片裝</t>
+    <t>TENGA VIO MEN’s SHEET 男士護理濕紙巾 10片裝</t>
+  </si>
+  <si>
+    <t>Olivia D56 無潤滑安全套 單片裝</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color indexed="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="0"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,7 +212,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -150,24 +229,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -190,10 +270,10 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -214,20 +294,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -255,31 +335,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -307,23 +370,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -335,286 +381,435 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD2371"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>